--- a/medicine/Premiers secours et secourisme/Brancardage/Brancardage.xlsx
+++ b/medicine/Premiers secours et secourisme/Brancardage/Brancardage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En premiers secours, le brancardage est le transport d'une personne sur un brancard. La mise sur le brancard en elle-même est appelée relevage lorsque la personne se blesse hors milieu hospitalier (voie publique, domicile, lieu public, lieu de travail...), et « translation » en milieu hospitalier (passage du lit au brancard).
 Le brancardage doit être soigneux afin d'éviter les mouvements brusques et chocs qui pourraient aggraver l'état de la victime. S'il s'agit d'un brancard sur roues, le brancardage peut être fait par une ou deux personnes selon l'état du patient (nécessité de porter du matériel, d'effectuer une surveillance pendant le transport). S'il s'agit d'un brancard porté, le brancardage se fait en général à trois ou quatre équipiers, exceptionnellement à deux.
@@ -513,7 +525,9 @@
           <t>Principes généraux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On ne transporte en général pas une victime en urgence, sauf lorsque son traitement ne peut se faire qu'à l'hôpital. Le brancardage n'a donc en théorie lieu qu'après examen de la victime, réalisation des geste de première urgence, et avec accord de la régulation médicale.
 Le responsable du brancardage doit d'abord effectuer une reconnaissance afin de s'assurer que le passage est libre, et de choisir l'itinéraire en fonction des difficultés du terrain (portes étroites, terrain accidenté, obstacles à franchir). Dans les cas simple, l'équipe emprunte le chemin qu'elle a utilisé pour se rendre auprès de la victime, la reconnaissance se fait donc à l'aller.
@@ -529,12 +543,6 @@
 si la victime présente une plaie au ventre, elle doit être transportée sur le dos, cuisses fléchies ;
 si la victime est blessée ou brûlée au dos, elle doit être transportée à plat ventre.
 Certains principes de base diffèrent selon les pays, ils sont exposés ci-après.
-École belge
-Pour la sécurité, on brancarde toujours les pieds en avant[1]. Le mouvement en sens inverse peut créer un malaise chez le patient, de plus, les équipiers les plus à même de trébucher sur le terrain sont ceux de l'avant, ce qui risquerait de faire tomber la victime tête la première. Quant à la surveillance du patient du fait de sa position, l'équipier arrière à une très bonne vue en restant dans le sens de la marche, contrairement à l'équipier avant qui doit quasiment regarder par-dessus son épaule.
-Exceptions à cette règle : entrée dans un local, le passage de porte se fait alors tête en avant.
-Cette technique est désormais employée en dehors de Belgique.
-École française
-En général, on brancarde tête en avant : le chef d'équipe, placé à l'arrière, peut ainsi surveiller à la fois ses équipiers et le visage du patient, ce qui lui permet de déceler une aggravation de son état. Cela permet également au patient de voir un visage plutôt qu'un couloir ou l'environnement de l'accident. Par ailleurs, d'un point de vue symbolique, le brancardage les pieds devant évoque le transport des morts. Toutefois, pour des raisons pratiques, on peut avoir à transporter les pieds en avant (notamment s'il faut assurer une ventilation artificielle).
 </t>
         </is>
       </c>
@@ -560,10 +568,88 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Principes généraux</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>École belge</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour la sécurité, on brancarde toujours les pieds en avant. Le mouvement en sens inverse peut créer un malaise chez le patient, de plus, les équipiers les plus à même de trébucher sur le terrain sont ceux de l'avant, ce qui risquerait de faire tomber la victime tête la première. Quant à la surveillance du patient du fait de sa position, l'équipier arrière à une très bonne vue en restant dans le sens de la marche, contrairement à l'équipier avant qui doit quasiment regarder par-dessus son épaule.
+Exceptions à cette règle : entrée dans un local, le passage de porte se fait alors tête en avant.
+Cette technique est désormais employée en dehors de Belgique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Brancardage</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brancardage</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Principes généraux</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>École française</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En général, on brancarde tête en avant : le chef d'équipe, placé à l'arrière, peut ainsi surveiller à la fois ses équipiers et le visage du patient, ce qui lui permet de déceler une aggravation de son état. Cela permet également au patient de voir un visage plutôt qu'un couloir ou l'environnement de l'accident. Par ailleurs, d'un point de vue symbolique, le brancardage les pieds devant évoque le transport des morts. Toutefois, pour des raisons pratiques, on peut avoir à transporter les pieds en avant (notamment s'il faut assurer une ventilation artificielle).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brancardage</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brancardage</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Utilisation d'un chariot-brancard</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les véhicules de secours modernes possèdent un brancard à roues. Le brancardage consiste essentiellement à pousser le brancard sans à-coup.
 Le brancard est constitué d'un chariot pouvant être en position haute ou basse, et d'un brancard amovible. Dans les cas simples, le relevage se fait en mettant le chariot en position basse, puis le chariot est remis en position haute pour le transport. Cependant, ce passage en position haute nécessite de lever le brancard plus haut afin que les pieds du chariot se verrouillent, ce qui peut dans certains cas causer un à-coup ; si cet à-coup est incompatible avec l'état de la victime, il faut alors utiliser un intermédiaire de relevage :
@@ -574,37 +660,73 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Brancardage</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Premiers secours et secourisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Brancardage</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Brancardage</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brancardage</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Brancardage manuel</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En milieu urbain, le brancardage manuel est rare, les ambulances modernes étant équipées d'un chariot-brancard. Il est cependant nécessaire :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En milieu urbain, le brancardage manuel est rare, les ambulances modernes étant équipées d'un chariot-brancard. Il est cependant nécessaire :
 lorsque le terrain ne permet pas de faire rouler le brancard ;
-lorsqu'un chariot-brancard n'est pas disponible, et en particulier en cas de carence de moyens.
-Porté du brancard
-À quatre secouriste, chacun tient une poignée de hampe. À trois secouristes, deux secouristes se placent du côté de la tête, le plus lourd, le troisième se place aux pieds et tient les deux hampes. À deux secouristes, l'un se place à la tête, l'autre aux pieds, et chacun tient les deux hampes ; les secouristes utilisent si possible une sangle de portage pour supporter une partie du poids et constituer une sécurité si une main glisse.
+lorsqu'un chariot-brancard n'est pas disponible, et en particulier en cas de carence de moyens.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Brancardage</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brancardage</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Brancardage manuel</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Porté du brancard</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À quatre secouriste, chacun tient une poignée de hampe. À trois secouristes, deux secouristes se placent du côté de la tête, le plus lourd, le troisième se place aux pieds et tient les deux hampes. À deux secouristes, l'un se place à la tête, l'autre aux pieds, et chacun tient les deux hampes ; les secouristes utilisent si possible une sangle de portage pour supporter une partie du poids et constituer une sécurité si une main glisse.
 De manière générale :
 le nombre de brancardiers dépend de l'organisme chargé de l'opération, et notamment des règles du pays ;
 le brancardage manuel à deux est une opération fatigante et risquée, et doit donc être l'exception : transport sur une courte distance en cas de carence de moyens ;
@@ -614,8 +736,43 @@
 			idem
 			Brancardage à deux secouristes.
 			idem
-Manœuvre de base
-La manœuvre de base consiste à lever le brancard, à marcher pour se déplacer, puis à poser le brancard. Pour coordonner les mouvements, le chef d'équipe émet des ordres préparatoires (annonce de la manœuvre, de type « attention pour… ») et des ordres exécutoires (début de la manœuvre). En France, la procédure est la suivante :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Brancardage</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brancardage</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Brancardage manuel</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Manœuvre de base</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>La manœuvre de base consiste à lever le brancard, à marcher pour se déplacer, puis à poser le brancard. Pour coordonner les mouvements, le chef d'équipe émet des ordres préparatoires (annonce de la manœuvre, de type « attention pour… ») et des ordres exécutoires (début de la manœuvre). En France, la procédure est la suivante :
 le chef annonce « Pour le brancardage : en position ! » ; les équipiers se placent à leur place respective, face au brancard, et saisissent le brancard à deux mains ;
 le chef demande « Êtes-vous prêts ? » ; les équipiers répondent chacun « Prêt(e) ! » ;
 le chef annonce « Attention pour lever… Levez ! » : l'ensemble des secouristes se relève (en utilisant la force des cuisse et en restant le dos droit) ;
@@ -624,44 +781,75 @@
 Arrivé à destination :
 le chef annonce « Attention pour arrêter… Arrêtez ! » : les secouristes s'arrêtent ;
 le chef annonce « Attention pour poser… » : les secouristes pivotent d'un quart de tour pour se mettre face au brancard et le saisissent à deux mains ;
-le chef annonce « Posez ! » : l'ensemble des secouristes se baisse (en fléchissant les cuisse et en restant le dos droit) et pose le brancard au sol.
-Montée et descente des escaliers
-Passage d'une porte étroite
-Passage d'un obstacle
-Franchissement d'un fossé
-Abord d'une pente importante
-Franchissement d'un passage bas
-Chargement dans un véhicule ou sortie d'un véhicule
+le chef annonce « Posez ! » : l'ensemble des secouristes se baisse (en fléchissant les cuisse et en restant le dos droit) et pose le brancard au sol.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Brancardage</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brancardage</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Brancardage manuel</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Chargement dans un véhicule ou sortie d'un véhicule</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Sortie d'un véhicule
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Brancardage</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Premiers secours et secourisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Brancardage</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Brancardage</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brancardage</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Méthodes de substitution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Le transport allongé est le plus sûr pour la victime : c'est une position qui ne sollicite aucun effort et facilite la circulation sanguine, et en particulier la perfusion du cerveau (celui-ci étant à hauteur du cœur). Toutefois, c'est une méthode pouvant être compliquée à mettre en œuvre : elle expose la victime à une risque de chute, le brancard prend de la place, et s'il ne dispose pas de roulettes, l'opération est fatigante.
 Pour ces raisons, il existe d'autres méthodes permettant de transporter une victime lorsque son état le permet :
